--- a/Aws/SAP/試験ガイド.xlsx
+++ b/Aws/SAP/試験ガイド.xlsx
@@ -483,10 +483,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「AWS Well-Architected Framework」 ホワイトペーパー (2017 年 11 月発行)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>言語</t>
     <rPh sb="0" eb="2">
       <t>ゲンゴ</t>
@@ -528,6 +524,10 @@
   </si>
   <si>
     <t>「AWS セキュリティのベストプラクティス」ホワイトペーパー (2016 年 8 月発行)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「AWS Well-Architected Framework」 ホワイトペーパー (2017 年 11 月発行)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -906,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A100" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A55" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1217,15 +1217,15 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C63" t="s">
+        <v>58</v>
+      </c>
+      <c r="F63" t="s">
         <v>59</v>
-      </c>
-      <c r="F63" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.15">
@@ -1249,15 +1249,15 @@
         <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C69" t="s">
+        <v>58</v>
+      </c>
+      <c r="F69" t="s">
         <v>59</v>
-      </c>
-      <c r="F69" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.15">
@@ -1286,15 +1286,15 @@
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C75" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C76" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="77" spans="2:6" x14ac:dyDescent="0.15">
@@ -1328,10 +1328,10 @@
     </row>
     <row r="83" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C83" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F83" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="84" spans="2:6" x14ac:dyDescent="0.15">
@@ -1360,10 +1360,10 @@
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C89" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F89" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="2:6" x14ac:dyDescent="0.15">
@@ -1392,10 +1392,10 @@
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="2:6" x14ac:dyDescent="0.15">
@@ -1424,7 +1424,7 @@
     </row>
     <row r="101" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C101" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="104" spans="2:6" x14ac:dyDescent="0.15">
@@ -1447,7 +1447,7 @@
     </row>
     <row r="108" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C108" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="2:6" x14ac:dyDescent="0.15">
@@ -1460,7 +1460,7 @@
     </row>
     <row r="112" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C112" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
